--- a/Testcase/Version 2.0/Group03_Testcase_Ver2.0.xlsx
+++ b/Testcase/Version 2.0/Group03_Testcase_Ver2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Refferences\HK2_2020_2021\Software_Engineering\FinalProject\AppTangQua\Testcase\Version 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D425E167-7FBD-45E4-8CA0-796E4A8CC5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAAD3D0-CF67-4F1A-8408-1F8C83AD7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="8" xr2:uid="{8E3BF3F7-4650-4817-AC37-75B495DCE321}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Click "Lưu"</t>
   </si>
   <si>
-    <t>Write requie field with valid data in form EditProduct and click "Lưu". This Object (Product) will be update on firebase</t>
-  </si>
-  <si>
     <t>Write all field on form EditProduct</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Object (Product) can not be update on firebase</t>
   </si>
   <si>
-    <t>Write requie field with null data in form EditProduct and click "Lưu" will receive an error message</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -227,15 +221,9 @@
     <t>New information will be update to firestore</t>
   </si>
   <si>
-    <t>Write or select requie field with valid data in form Information Fragment and click "Lưu" .New information will update to firestore</t>
-  </si>
-  <si>
     <t>Name = null</t>
   </si>
   <si>
-    <t>Write or select requie field with null data in form Information Fragment and click "Lưu" . An error message will be shown</t>
-  </si>
-  <si>
     <t>Enter null</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
     <t>password = "128" or null</t>
   </si>
   <si>
-    <t>Write requie field with invalid data in dialog t and click "Lưu". An error message will be shown</t>
-  </si>
-  <si>
     <t>an error message will be shown</t>
   </si>
   <si>
@@ -399,6 +384,26 @@
   </si>
   <si>
     <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>Write requie field with valid data in form EditProductand click "Lưu".
+This Object (Product) will be update on firebase</t>
+  </si>
+  <si>
+    <t>Write requie field with null data in form EditProduct and 
+click "Lưu" will receive an error message</t>
+  </si>
+  <si>
+    <t>Write requie field with invalid data in dialog t and 
+click "Lưu". An error message will be shown</t>
+  </si>
+  <si>
+    <t>Write or select requie field with valid data in form Information Fragment 
+and click "Lưu" .New information will update to firestore</t>
+  </si>
+  <si>
+    <t>Write or select requie field with null data in form Information Fragment
+and click "Lưu" . An error message will be shown</t>
   </si>
 </sst>
 </file>
@@ -422,35 +427,32 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -466,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -541,109 +543,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,12 +975,12 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1001,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1003,67 +1015,116 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -1072,6 +1133,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
@@ -1083,7 +1145,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -1092,6 +1154,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
@@ -1103,13 +1166,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -1121,13 +1185,14 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
@@ -1139,7 +1204,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
@@ -1151,7 +1221,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
@@ -1163,7 +1238,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
@@ -1175,7 +1255,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -1187,17 +1272,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -1214,39 +1330,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -1262,14 +1378,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -1281,37 +1397,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1320,47 +1436,7 @@
       <c r="K25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1370,6 +1446,47 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1380,18 +1497,18 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1523,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1420,67 +1537,116 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -1489,18 +1655,19 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
@@ -1509,112 +1676,166 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -1631,39 +1852,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -1679,14 +1900,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -1698,37 +1919,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1737,47 +1958,7 @@
       <c r="K25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1787,6 +1968,47 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1796,26 +2018,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCE0AC8-DA20-42D9-8ED5-B74DE725655D}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1823,7 +2045,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1837,143 +2059,201 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
@@ -1983,7 +2263,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
@@ -1993,7 +2278,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
@@ -2003,7 +2293,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -2013,17 +2308,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -2040,39 +2366,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -2084,18 +2410,18 @@
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="B23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -2107,37 +2433,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -2146,47 +2472,7 @@
       <c r="K25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2196,6 +2482,47 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2206,25 +2533,25 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2232,7 +2559,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2246,95 +2573,146 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
@@ -2344,13 +2722,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -2360,13 +2739,14 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
@@ -2376,7 +2756,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
@@ -2386,7 +2771,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
@@ -2396,7 +2786,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
@@ -2406,7 +2801,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -2416,17 +2816,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -2443,39 +2874,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -2487,18 +2918,18 @@
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="B23" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -2514,33 +2945,33 @@
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -2549,47 +2980,7 @@
       <c r="K25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2599,6 +2990,47 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2608,26 +3040,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EF1F26-5F4A-4947-BB59-FB48CE3758D2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2635,7 +3067,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2649,95 +3081,146 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
@@ -2747,13 +3230,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -2763,13 +3247,14 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
@@ -2779,7 +3264,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
@@ -2789,7 +3279,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
@@ -2799,7 +3294,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
@@ -2809,7 +3309,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -2819,17 +3324,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -2846,39 +3382,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -2894,14 +3430,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -2913,37 +3449,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -2953,46 +3489,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3002,6 +3498,46 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3012,25 +3548,25 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3038,7 +3574,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3052,95 +3588,146 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
@@ -3150,13 +3737,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
@@ -3166,13 +3754,14 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
@@ -3182,7 +3771,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
@@ -3192,7 +3786,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
@@ -3202,7 +3801,12 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
@@ -3212,7 +3816,12 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -3222,17 +3831,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -3249,39 +3889,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -3293,18 +3933,18 @@
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -3320,33 +3960,33 @@
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -3355,47 +3995,7 @@
       <c r="K25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3405,6 +4005,47 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3415,12 +4056,12 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +4074,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3441,7 +4082,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3455,179 +4096,252 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -3637,17 +4351,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -3664,39 +4409,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -3712,14 +4457,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -3731,37 +4476,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -3771,46 +4516,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3820,8 +4525,49 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3830,25 +4576,25 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3856,7 +4602,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3870,179 +4616,252 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="20">
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="20">
         <v>2</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="20">
         <v>4</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="20">
         <v>5</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="20">
         <v>6</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="20">
         <v>7</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="20">
         <v>8</v>
       </c>
@@ -4052,17 +4871,48 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -4079,39 +4929,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -4127,14 +4977,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -4146,37 +4996,37 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -4186,46 +5036,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4235,6 +5045,46 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4245,10 +5095,13 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I25" sqref="A1:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4256,14 +5109,14 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4285,72 +5138,72 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13">
         <v>44339</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -4358,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -4370,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -4460,7 +5313,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -4482,39 +5335,39 @@
       <c r="F20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
@@ -4530,14 +5383,14 @@
       <c r="A23" s="20">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="B23" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="21" t="s">
         <v>32</v>
       </c>
@@ -4549,35 +5402,35 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -4587,46 +5440,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4636,7 +5449,48 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>